--- a/Dados.xlsx
+++ b/Dados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,60 @@
         <v>100.5</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45855.78208693166</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Presente</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>40.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
